--- a/frontend/public/Partturn Gearbox.xlsx
+++ b/frontend/public/Partturn Gearbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELLL\Desktop\AUMA_DOC\RFQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\Auma_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C455D84-8CCC-46DA-B2F5-8DA0F2F77A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25026AA-B934-4F9A-BCC9-F296AE1BC240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Duty Class</t>
   </si>
@@ -95,21 +95,6 @@
     <t>Gearbox_Manual
 Force
 [N]</t>
-  </si>
-  <si>
-    <t>Duty Class 1</t>
-  </si>
-  <si>
-    <t>Motor operation in accordance with EN 15714-2.</t>
-  </si>
-  <si>
-    <t>F07,F10</t>
-  </si>
-  <si>
-    <t>GS 50.3</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -483,21 +468,21 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" customWidth="1"/>
-    <col min="16" max="16" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" customWidth="1"/>
+    <col min="14" max="14" width="20.6328125" customWidth="1"/>
+    <col min="15" max="15" width="19.54296875" customWidth="1"/>
+    <col min="16" max="16" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="104.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="104.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -557,49 +542,21 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6">
-        <v>500</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2.1256944444444446</v>
-      </c>
-      <c r="H2" s="6">
-        <v>16.7</v>
-      </c>
-      <c r="I2" s="6">
-        <v>12.75</v>
-      </c>
-      <c r="J2" s="6">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="6">
-        <v>30</v>
-      </c>
-      <c r="M2" s="6">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
